--- a/三目並べ/振り返り/28_開発体験シート.xlsx
+++ b/三目並べ/振り返り/28_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11786C1A-BF70-4E21-B2ED-82FE77CD79D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162C510-6087-4E84-8F4B-03E28E5DF588}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>－</t>
+  </si>
+  <si>
+    <t>●</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1735,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2103,13 +2106,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I26" s="9"/>
     </row>
@@ -2120,13 +2123,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -2281,13 +2284,13 @@
         <v>54</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>－</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2298,13 +2301,13 @@
         <v>55</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>－</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2504,18 +2507,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2537,6 +2540,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -2550,12 +2561,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>